--- a/data/2/20230608-a1r-nc-session2-m_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-m_transcript.xlsx
@@ -1,426 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C634AE-3E2F-9747-9A51-DCE4A31813C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:07"</t>
-  </si>
-  <si>
-    <t>My name is Monica. I live in South Texas. I am a senior operations manager for a travel company, and I have a little one with me today, but that's about it. I'm happy to be here. Thank you.</t>
-  </si>
-  <si>
-    <t>"2:34"</t>
-  </si>
-  <si>
-    <t>My name is Jerry here again tonight, I live in a suburb of Detroit, called No Lie in Michigan. And I'm looking forward to this evening to discussions. I just have one question. For those of you who did request hard copies of the material, give me a thumbs-up or a thumbs-down, whether you got it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Okay, I see three four. Okay, all right. Thank you.</t>
-  </si>
-  <si>
-    <t>"3:12"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Cheryl from in Delaware live in Delaware. I've received mine today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't know.</t>
-  </si>
-  <si>
-    <t>"3:28"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Rachel. I'm from Maryland. I didn't request hard copy of anything, so</t>
-  </si>
-  <si>
-    <t>"3:38"</t>
-  </si>
-  <si>
-    <t>Hi. My name is Kimberly. I did receive my packet yesterday so I was very happy to be able to go over some materials. It has been a while since we did that survey. I'm from Kentucky, I am a farmer. I've got pigs chickens goats. I'm excited to be here tonight. Nice to meet you guys.</t>
-  </si>
-  <si>
-    <t>"4:13"</t>
-  </si>
-  <si>
-    <t>I'm Nick. Look forward to discussion. Again, I did receive my packet of information yesterday and again I'm in Colorado. And I am a environmental consultant.</t>
-  </si>
-  <si>
-    <t>"12:42"</t>
-  </si>
-  <si>
-    <t>Well, I actually did read this time before a little bit before I came. So I'm kind of was saying I'm against it because against the party leaders, having more role in choosing the party nominee because it acts in the interest of the party Elites rather than the voters and the super-delegates might not always vote accordingly. And they're also put, I don't like how they talk to say. Voters are uninformed, they like talk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> About us, like we're stupid sometimes, and maybe if you think people are so uninformed, maybe you should have some requirements, like, maybe we make them watch a video to be able to vote or something. And I feel like I'm giving my rights away if I'm giving</t>
-  </si>
-  <si>
-    <t>"13:35"</t>
-  </si>
-  <si>
-    <t>I agree with that. Does sound like a bad idea having select group of people small group that that select the person that goes to the or gets on the ballot, the end of the year. It just seems like you're removing all the choice from the actual voters, along the prop and like, short-circuiting the process. I guess, just again does seems very undemocratic.</t>
-  </si>
-  <si>
-    <t>"14:02"</t>
-  </si>
-  <si>
-    <t>Okay, I agree also that this doesn't seem like a good approach in it. Treats, the voting public is being true, at least uninformed, if not stupid, and that ability and no ability to analyze and make decisions on who they would like to vote for and rather had their sugar daddy or whatever, make the decisions for them. So I would vote against this particular process.</t>
-  </si>
-  <si>
-    <t>"14:36"</t>
-  </si>
-  <si>
-    <t>I agree, I'm against it. I want more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Voting for the people, not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not a select few.</t>
-  </si>
-  <si>
-    <t>"15:12"</t>
-  </si>
-  <si>
-    <t>I believe most of us are in agreeance that this is not a good idea that this is not the olden days. We can make decisions for ourselves. We don't need a few to make our choices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, I concur, thanks.</t>
-  </si>
-  <si>
-    <t>"16:49"</t>
-  </si>
-  <si>
-    <t>After listening to The Experts yesterday, on more in favor of the rank Choice voting than I was before listening to them, it doesn't sound like amending. The Constitution is going to well it's not it's not easy so I don't know. I don't think going that way is what work?</t>
-  </si>
-  <si>
-    <t>"17:20"</t>
-  </si>
-  <si>
-    <t>I'm also starting to warm up to the rank Choice voting partly, because what was said, in the subsequent session yesterday, but I started thinking about it and I'm wondering will using the rank Choice voting system at the state level to distribute the electoral votes always result in the electronic Electoral College winner, never being the majority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vote winner will be the plural, polarity V winner, but they'll never be the majority winner in that might turn some people off.</t>
-  </si>
-  <si>
-    <t>"18:12"</t>
-  </si>
-  <si>
-    <t>Jay I think it's a good question and I guess at least as far as we have that ability right now with the system as is that the presidential winner will not would only receive the pleura gravity of books versus the majority Across the Nation. So I guess from that perspective, I do think that something needs to change or the current system does should be modified. I also agree that I don't think that's going to happen through.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Constitutional Amendment just because the difficulty and given the state of politics these days. So going around and we'll get to this with the national state compact or monitoring make Choice, voting does seem either on National or state level would be</t>
-  </si>
-  <si>
-    <t>"19:01"</t>
-  </si>
-  <si>
-    <t>I'm kind of agree with you guys to like I'm I don't want to because of the amending of the Constitution, so I would like to apply the right choice. Voting to the Electoral College. Not sure if I really like the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National popular compact thing. But I know we're not talking about that right now. So I don't necessarily, but I like that how you wouldn't waste your vote, if you have the rank Choice voting. So, like, let's say you wanted to vote for independent or third party, and they didn't win your vote, would be moved to like your second choice. So wouldn't just, you wouldn't feel pressure to vote democrat or republican. If you didn't</t>
-  </si>
-  <si>
-    <t>"20:14"</t>
-  </si>
-  <si>
-    <t>I guess, I guess within just a follow-up on one question that I always that I do have at is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Here's on the materials that they kind of like a real college does favor, smaller states are outweighs, the viewpoints are the votes of smaller States over the larger ones were more populous ones I should say. And so if we were to switch that to a national popular vote, are we just switching the end? I guess with the Electoral College it comes with focus of candidates on swing States is that switching to a national popular vote? Would it just essentially just trade those swing States for the more populous states that cannabis was still focused on them? So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't know if reading Choice voting would necessarily take care of that or mitigate that</t>
-  </si>
-  <si>
-    <t>"21:25"</t>
-  </si>
-  <si>
-    <t>This is kind of a hard one to. I did read beforehand. I'm thinking about amending the Constitution and using the right choice. Voting also, my only concern would be is like Nick was saying it's like this swing States. I wouldn't want, you know, whoever ended up in the position to kind of forget those smaller States</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But I think this would be something worth looking into is with the rank Choice voting so um I don't think I'm as against it as I was at first, so I agree, but I definitely think it would want to maybe do it by a minute.</t>
-  </si>
-  <si>
-    <t>"23:06"</t>
-  </si>
-  <si>
-    <t>I I am against it because I don't like that. They would have to vote for the national popular vote regardless of what my state voted and and it's not compatible with our CV so I'm kind of liking the RC B idea. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if it's not compatible with it, I think I rather choose that and also because of the state like, voting different things,</t>
-  </si>
-  <si>
-    <t>"23:37"</t>
-  </si>
-  <si>
-    <t>Yes, I have to agree. I can't, in fact, I can't even believe that 15 states in the DC have already signed up for this. It seems like such a hairbrained thing. Giving away your votes based on some other part of the country's popular vote decision. I just don't understand why anybody would want this process.</t>
-  </si>
-  <si>
-    <t>"24:05"</t>
-  </si>
-  <si>
-    <t>But I guess regarding the, like, a state throwing away their votes, it's not necessarily. I understand, let me be the majority. There's a narrow majority and say, the Republicans win a state, but nationally Democratic candidate wins, they're still, you know, that small option. Say, it's not that all the votes. Holly Republican votes were all the Democratic votes in that state, you know, the way it is now that state would go Republican and but, but necessarily with all</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The other, I guess you still have a large portion of the population in that state voting with the rest of the country. So I guess we're looking at honest, it's versus a state-by-state basis versus a national basis.</t>
-  </si>
-  <si>
-    <t>"25:01"</t>
-  </si>
-  <si>
-    <t>Then in following up on that right now. If that, that example, that state that went majority chose Republican candidate, you all those and all of the lectures, then go Republican, that, you know, failure less than just just under the majority of Democrats in that state, then they're both just go to the Wayside forces that less that small even though there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technically the minority in that state on a national level. They could be part of the majority and so I guess, you know as far as bringing Unity to the country as a whole I don't know. It seems like it would be better to look at the as a nation as a whole rather than state-by-state basis.</t>
-  </si>
-  <si>
-    <t>"25:48"</t>
-  </si>
-  <si>
-    <t>One other comment about this proposal, I interpret it correctly. What would happen is that the winner would actually have all 538 electoral votes? Which on the surface people would look at and say, well gee that's a commanding win and it's this person better deliver. And by the way, I don't agree with what he said, he wants to deliver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You might cause a lot of confusion and I don't know, discourse.</t>
-  </si>
-  <si>
-    <t>"28:09"</t>
-  </si>
-  <si>
-    <t>I like having nine and I'm not sure I'm undecided about the 18 year term. I just don't know enough.</t>
-  </si>
-  <si>
-    <t>"28:22"</t>
-  </si>
-  <si>
-    <t>I kind of like the idea of the 18-year terms just because I mean some of the justices have been on there for eons, you know, and a lot of them I have no problem with people that are older but some of them, some of their views might be older and outdated and we are progressing as a nation, whether we like it or not. So I think having 18 years is probably a good limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't think anyone should have that much power for that long, but I don't like the fact that it would be like the federal legislation making the change. I think that would probably need to be a constitutional amendment that goes back.</t>
-  </si>
-  <si>
-    <t>"29:07"</t>
-  </si>
-  <si>
-    <t>I really believe that the Supreme Court should have a cap on how many years they have that power. I really really think that 18 years is a very long time for a courier and really even could be shorter.</t>
-  </si>
-  <si>
-    <t>"29:39"</t>
-  </si>
-  <si>
-    <t>I agree. I also think I did like the lot, the third proposal where the justices would need to abide by the same ethical standards as any other judge in the nation. I think. So, I would makes them so much better. I know that they have a career, but a lot of them are career. Politicians as well, you know, so I definitely think there should be some accountability, so it's just my two cents.</t>
-  </si>
-  <si>
-    <t>"30:07"</t>
-  </si>
-  <si>
-    <t>I agree with you guys if there should be a 18 year or even less term for the same exact reasons, like if there's people in there for</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ever, their ideas might not be evolving with how people how Society is because they might be stuck in their ways. And I like the idea of the presence of like the temporarily expanding the size of the Supreme Court, so that the president can appoint a new Supreme Court Justice. I just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think it's a good idea. Maybe it's a good idea for the president to have that for his or her presidential term.</t>
-  </si>
-  <si>
-    <t>"30:52"</t>
-  </si>
-  <si>
-    <t>I also agree with that establishing a term limit of term limit on Supreme Court Justices and I mean, I guess to that point or I guess to the last point and I do like the idea of a president getting to select select two of those with their during their terms. You know the country. Did it like that president? Or that least with that party that political or ideological?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viewpoint and so the court should reflect that as well. We're gives an opportunity for the courts to reflect that rather than say like we've had most the court. What by or with Republican put up by Republicans and now in a democratic ideology.</t>
-  </si>
-  <si>
-    <t>"31:44"</t>
-  </si>
-  <si>
-    <t>Okay, I have not actually reviewed all the details about the Supreme Court reform. It's on page 48.</t>
-  </si>
-  <si>
-    <t>We were next, going up to page 24. I thought we were following through this document. This is one problem. I have with this whole process, they don't tell you what, we're going to have to review and respond to in each session and then they come in and they skip from page 24 to 48. I got myself through over 100 page, 30, something thinking that would be enough for tonight and obviously I made a mistake. So I'm going to hit the end of this whole process. I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I got a whole list of issues, I have with the way they're running this process.</t>
-  </si>
-  <si>
-    <t>"33:33"</t>
-  </si>
-  <si>
-    <t>I think this is a good proposal. We need thinking back to my high school days of civics class and just let that really forming about foundation for my understanding, moving forward and being participating in democracy. I don't know that I would have necessarily would, I can almost guarantee that I probably would not have come or come on upon that on my own, or had the certainly not the interest level, to dig into the low level of details that I was able.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And you know in some respects before still earn or presented within those while going through the education system. So I think that's the time to give everyone those skills and</t>
-  </si>
-  <si>
-    <t>"34:25"</t>
-  </si>
-  <si>
-    <t>I agree that they should increase the funding for civic education. We as the Citizens, United States need to understand how everything works and why we should vote in up other things that you can do to help improve your communities. And I like the idea of high school and college students debating, if you will or discussing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Things that they can do in their communities and issues in their country because it's important for them to focus on things like that rather than stuff that they focus on now, like celebrities and Tick, Tock, social media.</t>
-  </si>
-  <si>
-    <t>"35:10"</t>
-  </si>
-  <si>
-    <t>I like the idea of civic education and more money going towards it. I really agree that we are dropping the ball on promoting an understanding democracy here in America. I want 100% think that this is money. Well, spent by the taxpayers.</t>
-  </si>
-  <si>
-    <t>"35:47"</t>
-  </si>
-  <si>
-    <t>I like the idea of increased state and local funding in schools. However, I do think, I think there should be like limited education at a young age because most little ones aren't able to really understand thoroughly what's going on, but I definitely think it should be funded towards High School level and above, especially as they graduate. So they know, like they're becoming an adult. They're learning like how everything works. I think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That would be the proper time to do that. Rather than forcing it on little ones. That I mean, they really don't even have a attention span. So, a mother. So I just think that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investing in it at too. Young of an age might be kind of a waste of money, but</t>
-  </si>
-  <si>
-    <t>"36:32"</t>
-  </si>
-  <si>
-    <t>Well, I didn't mean to cut you off. I'm sorry. I just thinking back to when our kids were really young Sesame Street. They actually had civic education and Sesame Street. How you make a bill, how a bill is formed. How it goes through Congress. So maybe the young people can be addressed by Sesame Street and we can leave the older children to do it in the public school system.</t>
-  </si>
-  <si>
-    <t>"37:05"</t>
-  </si>
-  <si>
-    <t>I agree. I like, I like the Sesame Street. Not in that case. I think that would be a good way to handle it. Yes, I like it.</t>
-  </si>
-  <si>
-    <t>"37:21"</t>
-  </si>
-  <si>
-    <t>I agree with that because I agree with what Monica said about not doing it to young like to Advanced stuff. But then Jerry came through with the, like, you know, the Sesame Street. So, that's the answer. Good idea.</t>
-  </si>
-  <si>
-    <t>"39:33"</t>
-  </si>
-  <si>
-    <t>The other day, I did not know. I was going to have to read the question and I was like, eating a cookie and they were like, called all me, and I was like, oh my gosh! I was like, try to remember. And look at the paper like while and he's like, what do you mean? And I was like, I don't even know where the tape that a shit.</t>
-  </si>
-  <si>
-    <t>"40:39"</t>
-  </si>
-  <si>
-    <t>I just want to say, I tried to learn from yesterday or Tuesday's issue that I had with typing in my full question and then I got cut off and never was able to get it. In what my question really is is will using our CV at the state level to distribute electoral votes, always result in the Electoral College winner, never being a majority vote winner. So I sort of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Re abbreviate it there. And what I wrote,</t>
-  </si>
-  <si>
-    <t>"43:14"</t>
-  </si>
-  <si>
-    <t>I think leave that question as it is and just go on to the next</t>
-  </si>
-  <si>
-    <t>"43:28"</t>
-  </si>
-  <si>
-    <t>I agree.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -496,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -602,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1684,972 +1293,1193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS80"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:07"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>My name is Monica. I live in South Texas. I am a senior operations manager for a travel company, and I have a little one with me today, but that's about it. I'm happy to be here. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:34"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>My name is Jerry here again tonight, I live in a suburb of Detroit, called No Lie in Michigan. And I'm looking forward to this evening to discussions. I just have one question. For those of you who did request hard copies of the material, give me a thumbs-up or a thumbs-down, whether you got it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"2:34"</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"2:34"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Okay, I see three four. Okay, all right. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"3:12"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Hi, I'm Cheryl from in Delaware live in Delaware. I've received mine today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"3:12"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"3:28"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Hi, I'm Rachel. I'm from Maryland. I didn't request hard copy of anything, so</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"3:38"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"3:38"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Hi. My name is Kimberly. I did receive my packet yesterday so I was very happy to be able to go over some materials. It has been a while since we did that survey. I'm from Kentucky, I am a farmer. I've got pigs chickens goats. I'm excited to be here tonight. Nice to meet you guys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"4:13"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I'm Nick. Look forward to discussion. Again, I did receive my packet of information yesterday and again I'm in Colorado. And I am a environmental consultant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"12:42"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Well, I actually did read this time before a little bit before I came. So I'm kind of was saying I'm against it because against the party leaders, having more role in choosing the party nominee because it acts in the interest of the party Elites rather than the voters and the super-delegates might not always vote accordingly. And they're also put, I don't like how they talk to say. Voters are uninformed, they like talk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"12:42"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> About us, like we're stupid sometimes, and maybe if you think people are so uninformed, maybe you should have some requirements, like, maybe we make them watch a video to be able to vote or something. And I feel like I'm giving my rights away if I'm giving</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"13:35"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>I agree with that. Does sound like a bad idea having select group of people small group that that select the person that goes to the or gets on the ballot, the end of the year. It just seems like you're removing all the choice from the actual voters, along the prop and like, short-circuiting the process. I guess, just again does seems very undemocratic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"14:02"</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"14:02"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Okay, I agree also that this doesn't seem like a good approach in it. Treats, the voting public is being true, at least uninformed, if not stupid, and that ability and no ability to analyze and make decisions on who they would like to vote for and rather had their sugar daddy or whatever, make the decisions for them. So I would vote against this particular process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"14:02"</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>I agree, I'm against it. I want more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Voting for the people, not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"14:36"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Not a select few.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"15:12"</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"15:12"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>I believe most of us are in agreeance that this is not a good idea that this is not the olden days. We can make decisions for ourselves. We don't need a few to make our choices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"15:12"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, I concur, thanks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"16:49"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>After listening to The Experts yesterday, on more in favor of the rank Choice voting than I was before listening to them, it doesn't sound like amending. The Constitution is going to well it's not it's not easy so I don't know. I don't think going that way is what work?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"17:20"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>I'm also starting to warm up to the rank Choice voting partly, because what was said, in the subsequent session yesterday, but I started thinking about it and I'm wondering will using the rank Choice voting system at the state level to distribute the electoral votes always result in the electronic Electoral College winner, never being the majority.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"17:20"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vote winner will be the plural, polarity V winner, but they'll never be the majority winner in that might turn some people off.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"18:12"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Jay I think it's a good question and I guess at least as far as we have that ability right now with the system as is that the presidential winner will not would only receive the pleura gravity of books versus the majority Across the Nation. So I guess from that perspective, I do think that something needs to change or the current system does should be modified. I also agree that I don't think that's going to happen through.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"18:12"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constitutional Amendment just because the difficulty and given the state of politics these days. So going around and we'll get to this with the national state compact or monitoring make Choice, voting does seem either on National or state level would be</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"19:01"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>I'm kind of agree with you guys to like I'm I don't want to because of the amending of the Constitution, so I would like to apply the right choice. Voting to the Electoral College. Not sure if I really like the</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"19:01"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> National popular compact thing. But I know we're not talking about that right now. So I don't necessarily, but I like that how you wouldn't waste your vote, if you have the rank Choice voting. So, like, let's say you wanted to vote for independent or third party, and they didn't win your vote, would be moved to like your second choice. So wouldn't just, you wouldn't feel pressure to vote democrat or republican. If you didn't</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I guess, I guess within just a follow-up on one question that I always that I do have at is</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Here's on the materials that they kind of like a real college does favor, smaller states are outweighs, the viewpoints are the votes of smaller States over the larger ones were more populous ones I should say. And so if we were to switch that to a national popular vote, are we just switching the end? I guess with the Electoral College it comes with focus of candidates on swing States is that switching to a national popular vote? Would it just essentially just trade those swing States for the more populous states that cannabis was still focused on them? So</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know if reading Choice voting would necessarily take care of that or mitigate that</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"21:25"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>This is kind of a hard one to. I did read beforehand. I'm thinking about amending the Constitution and using the right choice. Voting also, my only concern would be is like Nick was saying it's like this swing States. I wouldn't want, you know, whoever ended up in the position to kind of forget those smaller States</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"21:25"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But I think this would be something worth looking into is with the rank Choice voting so um I don't think I'm as against it as I was at first, so I agree, but I definitely think it would want to maybe do it by a minute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I I am against it because I don't like that. They would have to vote for the national popular vote regardless of what my state voted and and it's not compatible with our CV so I'm kind of liking the RC B idea. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if it's not compatible with it, I think I rather choose that and also because of the state like, voting different things,</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"23:37"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I have to agree. I can't, in fact, I can't even believe that 15 states in the DC have already signed up for this. It seems like such a hairbrained thing. Giving away your votes based on some other part of the country's popular vote decision. I just don't understand why anybody would want this process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"24:05"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>But I guess regarding the, like, a state throwing away their votes, it's not necessarily. I understand, let me be the majority. There's a narrow majority and say, the Republicans win a state, but nationally Democratic candidate wins, they're still, you know, that small option. Say, it's not that all the votes. Holly Republican votes were all the Democratic votes in that state, you know, the way it is now that state would go Republican and but, but necessarily with all</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"24:05"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The other, I guess you still have a large portion of the population in that state voting with the rest of the country. So I guess we're looking at honest, it's versus a state-by-state basis versus a national basis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"25:01"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Then in following up on that right now. If that, that example, that state that went majority chose Republican candidate, you all those and all of the lectures, then go Republican, that, you know, failure less than just just under the majority of Democrats in that state, then they're both just go to the Wayside forces that less that small even though there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"25:01"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technically the minority in that state on a national level. They could be part of the majority and so I guess, you know as far as bringing Unity to the country as a whole I don't know. It seems like it would be better to look at the as a nation as a whole rather than state-by-state basis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"25:48"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>One other comment about this proposal, I interpret it correctly. What would happen is that the winner would actually have all 538 electoral votes? Which on the surface people would look at and say, well gee that's a commanding win and it's this person better deliver. And by the way, I don't agree with what he said, he wants to deliver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"25:48"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You might cause a lot of confusion and I don't know, discourse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"28:09"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>I like having nine and I'm not sure I'm undecided about the 18 year term. I just don't know enough.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"28:22"</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"28:22"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>I kind of like the idea of the 18-year terms just because I mean some of the justices have been on there for eons, you know, and a lot of them I have no problem with people that are older but some of them, some of their views might be older and outdated and we are progressing as a nation, whether we like it or not. So I think having 18 years is probably a good limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"28:22"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't think anyone should have that much power for that long, but I don't like the fact that it would be like the federal legislation making the change. I think that would probably need to be a constitutional amendment that goes back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"29:07"</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="n"/>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"29:07"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>I really believe that the Supreme Court should have a cap on how many years they have that power. I really really think that 18 years is a very long time for a courier and really even could be shorter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"29:39"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I also think I did like the lot, the third proposal where the justices would need to abide by the same ethical standards as any other judge in the nation. I think. So, I would makes them so much better. I know that they have a career, but a lot of them are career. Politicians as well, you know, so I definitely think there should be some accountability, so it's just my two cents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"30:07"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>I agree with you guys if there should be a 18 year or even less term for the same exact reasons, like if there's people in there for</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"30:07"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ever, their ideas might not be evolving with how people how Society is because they might be stuck in their ways. And I like the idea of the presence of like the temporarily expanding the size of the Supreme Court, so that the president can appoint a new Supreme Court Justice. I just</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"30:07"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"30:07"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think it's a good idea. Maybe it's a good idea for the president to have that for his or her presidential term.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"30:52"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>I also agree with that establishing a term limit of term limit on Supreme Court Justices and I mean, I guess to that point or I guess to the last point and I do like the idea of a president getting to select select two of those with their during their terms. You know the country. Did it like that president? Or that least with that party that political or ideological?</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"30:52"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viewpoint and so the court should reflect that as well. We're gives an opportunity for the courts to reflect that rather than say like we've had most the court. What by or with Republican put up by Republicans and now in a democratic ideology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"31:44"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Okay, I have not actually reviewed all the details about the Supreme Court reform. It's on page 48.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"31:44"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>We were next, going up to page 24. I thought we were following through this document. This is one problem. I have with this whole process, they don't tell you what, we're going to have to review and respond to in each session and then they come in and they skip from page 24 to 48. I got myself through over 100 page, 30, something thinking that would be enough for tonight and obviously I made a mistake. So I'm going to hit the end of this whole process. I</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"31:44"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I got a whole list of issues, I have with the way they're running this process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"33:33"</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"33:33"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>I think this is a good proposal. We need thinking back to my high school days of civics class and just let that really forming about foundation for my understanding, moving forward and being participating in democracy. I don't know that I would have necessarily would, I can almost guarantee that I probably would not have come or come on upon that on my own, or had the certainly not the interest level, to dig into the low level of details that I was able.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>10683</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"33:33"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And you know in some respects before still earn or presented within those while going through the education system. So I think that's the time to give everyone those skills and</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"34:25"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>I agree that they should increase the funding for civic education. We as the Citizens, United States need to understand how everything works and why we should vote in up other things that you can do to help improve your communities. And I like the idea of high school and college students debating, if you will or discussing</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"34:25"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Things that they can do in their communities and issues in their country because it's important for them to focus on things like that rather than stuff that they focus on now, like celebrities and Tick, Tock, social media.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"35:10"</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48731</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"35:10"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>I like the idea of civic education and more money going towards it. I really agree that we are dropping the ball on promoting an understanding democracy here in America. I want 100% think that this is money. Well, spent by the taxpayers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"35:47"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>I like the idea of increased state and local funding in schools. However, I do think, I think there should be like limited education at a young age because most little ones aren't able to really understand thoroughly what's going on, but I definitely think it should be funded towards High School level and above, especially as they graduate. So they know, like they're becoming an adult. They're learning like how everything works. I think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"35:47"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That would be the proper time to do that. Rather than forcing it on little ones. That I mean, they really don't even have a attention span. So, a mother. So I just think that</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"35:47"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Investing in it at too. Young of an age might be kind of a waste of money, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"36:32"</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="n"/>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"36:32"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Well, I didn't mean to cut you off. I'm sorry. I just thinking back to when our kids were really young Sesame Street. They actually had civic education and Sesame Street. How you make a bill, how a bill is formed. How it goes through Congress. So maybe the young people can be addressed by Sesame Street and we can leave the older children to do it in the public school system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>"37:05"</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="n"/>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="4" t="n">
         <v>48734</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>"37:05"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I like, I like the Sesame Street. Not in that case. I think that would be a good way to handle it. Yes, I like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>"37:21"</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>I agree with that because I agree with what Monica said about not doing it to young like to Advanced stuff. But then Jerry came through with the, like, you know, the Sesame Street. So, that's the answer. Good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="4" t="n">
         <v>48730</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>"39:33"</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>The other day, I did not know. I was going to have to read the question and I was like, eating a cookie and they were like, called all me, and I was like, oh my gosh! I was like, try to remember. And look at the paper like while and he's like, what do you mean? And I was like, I don't even know where the tape that a shit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="9">
+      <c r="A77" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>"40:39"</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>I just want to say, I tried to learn from yesterday or Tuesday's issue that I had with typing in my full question and then I got cut off and never was able to get it. In what my question really is is will using our CV at the state level to distribute electoral votes, always result in the Electoral College winner, never being a majority vote winner. So I sort of</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="9">
+      <c r="A78" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>"40:39"</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Re abbreviate it there. And what I wrote,</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" s="9">
+      <c r="A79" s="4" t="n">
         <v>9700</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>"43:14"</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>I think leave that question as it is and just go on to the next</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" s="9">
+      <c r="A80" s="4" t="n">
         <v>10041</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>107</v>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>"43:28"</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>I agree.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E545A0E-F921-494D-92C6-614D9AE692AA}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-nc-session2-m_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-m_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
